--- a/SRC/스도쿠/스도쿠 과정.xlsx
+++ b/SRC/스도쿠/스도쿠 과정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun0\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun0\Documents\CODE\MAIN\C\SRC\스도쿠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9069C5EA-85D6-4AAA-AE70-238252BCD438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8721641-B69D-4622-8644-A3B234A5805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20268" yWindow="1764" windowWidth="5472" windowHeight="12120" xr2:uid="{479FD565-4D56-4CE0-980E-BD6F9298D8DF}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{479FD565-4D56-4CE0-980E-BD6F9298D8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>[5차]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -331,10 +331,6 @@
   </si>
   <si>
     <t>8,8</t>
-  </si>
-  <si>
-    <t>i&gt;=0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1353,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578B1C39-5CFF-4266-88DA-65B71ACFE373}">
   <dimension ref="D1:EC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:U4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1364,11 +1360,7 @@
     <col min="28" max="28" width="6.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="S1" t="s">
-        <v>92</v>
-      </c>
-    </row>
+    <row r="1" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="60">
         <v>1</v>
@@ -1592,6 +1584,9 @@
       <c r="L5" s="62">
         <v>36</v>
       </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
       <c r="S5" s="60" t="s">
         <v>44</v>
       </c>
@@ -1647,6 +1642,9 @@
       </c>
       <c r="L6" s="64">
         <v>45</v>
+      </c>
+      <c r="R6">
+        <v>35</v>
       </c>
       <c r="S6" s="63" t="s">
         <v>45</v>

--- a/SRC/스도쿠/스도쿠 과정.xlsx
+++ b/SRC/스도쿠/스도쿠 과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun0\Documents\CODE\MAIN\C\SRC\스도쿠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8721641-B69D-4622-8644-A3B234A5805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A993D8-2977-4D26-B32E-AA1923D47924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{479FD565-4D56-4CE0-980E-BD6F9298D8DF}"/>
+    <workbookView xWindow="14160" yWindow="744" windowWidth="5472" windowHeight="12120" xr2:uid="{479FD565-4D56-4CE0-980E-BD6F9298D8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +1020,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578B1C39-5CFF-4266-88DA-65B71ACFE373}">
-  <dimension ref="D1:EC20"/>
+  <dimension ref="D1:EC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="104" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4868,6 +4910,279 @@
         <v>9</v>
       </c>
     </row>
+    <row r="22" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="73">
+        <v>8</v>
+      </c>
+      <c r="E23" s="74">
+        <v>1</v>
+      </c>
+      <c r="F23" s="62">
+        <v>9</v>
+      </c>
+      <c r="G23" s="73">
+        <v>4</v>
+      </c>
+      <c r="H23" s="61">
+        <v>5</v>
+      </c>
+      <c r="I23" s="75">
+        <v>2</v>
+      </c>
+      <c r="J23" s="60">
+        <v>3</v>
+      </c>
+      <c r="K23" s="74">
+        <v>6</v>
+      </c>
+      <c r="L23" s="62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="63">
+        <v>2</v>
+      </c>
+      <c r="E24" s="76">
+        <v>4</v>
+      </c>
+      <c r="F24" s="77">
+        <v>3</v>
+      </c>
+      <c r="G24" s="78">
+        <v>8</v>
+      </c>
+      <c r="H24" s="59">
+        <v>7</v>
+      </c>
+      <c r="I24" s="64">
+        <v>6</v>
+      </c>
+      <c r="J24" s="63">
+        <v>5</v>
+      </c>
+      <c r="K24" s="59">
+        <v>1</v>
+      </c>
+      <c r="L24" s="77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D25" s="65">
+        <v>7</v>
+      </c>
+      <c r="E25" s="79">
+        <v>6</v>
+      </c>
+      <c r="F25" s="80">
+        <v>5</v>
+      </c>
+      <c r="G25" s="65">
+        <v>1</v>
+      </c>
+      <c r="H25" s="79">
+        <v>9</v>
+      </c>
+      <c r="I25" s="80">
+        <v>3</v>
+      </c>
+      <c r="J25" s="81">
+        <v>8</v>
+      </c>
+      <c r="K25" s="79">
+        <v>4</v>
+      </c>
+      <c r="L25" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="73">
+        <v>1</v>
+      </c>
+      <c r="E26" s="61">
+        <v>8</v>
+      </c>
+      <c r="F26" s="75">
+        <v>6</v>
+      </c>
+      <c r="G26" s="73">
+        <v>3</v>
+      </c>
+      <c r="H26" s="74">
+        <v>2</v>
+      </c>
+      <c r="I26" s="75">
+        <v>9</v>
+      </c>
+      <c r="J26" s="73">
+        <v>7</v>
+      </c>
+      <c r="K26" s="74">
+        <v>5</v>
+      </c>
+      <c r="L26" s="75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="78">
+        <v>5</v>
+      </c>
+      <c r="E27" s="76">
+        <v>7</v>
+      </c>
+      <c r="F27" s="64">
+        <v>4</v>
+      </c>
+      <c r="G27" s="78">
+        <v>6</v>
+      </c>
+      <c r="H27" s="59">
+        <v>1</v>
+      </c>
+      <c r="I27" s="77">
+        <v>8</v>
+      </c>
+      <c r="J27" s="63">
+        <v>9</v>
+      </c>
+      <c r="K27" s="76">
+        <v>2</v>
+      </c>
+      <c r="L27" s="77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D28" s="81">
+        <v>3</v>
+      </c>
+      <c r="E28" s="79">
+        <v>9</v>
+      </c>
+      <c r="F28" s="80">
+        <v>2</v>
+      </c>
+      <c r="G28" s="81">
+        <v>5</v>
+      </c>
+      <c r="H28" s="79">
+        <v>4</v>
+      </c>
+      <c r="I28" s="80">
+        <v>7</v>
+      </c>
+      <c r="J28" s="81">
+        <v>6</v>
+      </c>
+      <c r="K28" s="66">
+        <v>8</v>
+      </c>
+      <c r="L28" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D29" s="60">
+        <v>4</v>
+      </c>
+      <c r="E29" s="74">
+        <v>5</v>
+      </c>
+      <c r="F29" s="75">
+        <v>7</v>
+      </c>
+      <c r="G29" s="73">
+        <v>9</v>
+      </c>
+      <c r="H29" s="74">
+        <v>6</v>
+      </c>
+      <c r="I29" s="62">
+        <v>1</v>
+      </c>
+      <c r="J29" s="82">
+        <v>2</v>
+      </c>
+      <c r="K29" s="83">
+        <v>3</v>
+      </c>
+      <c r="L29" s="72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D30" s="78">
+        <v>6</v>
+      </c>
+      <c r="E30" s="59">
+        <v>2</v>
+      </c>
+      <c r="F30" s="64">
+        <v>8</v>
+      </c>
+      <c r="G30" s="63">
+        <v>7</v>
+      </c>
+      <c r="H30" s="59">
+        <v>3</v>
+      </c>
+      <c r="I30" s="77">
+        <v>4</v>
+      </c>
+      <c r="J30" s="84">
+        <v>1</v>
+      </c>
+      <c r="K30" s="76">
+        <v>9</v>
+      </c>
+      <c r="L30" s="64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D31" s="65">
+        <v>9</v>
+      </c>
+      <c r="E31" s="79">
+        <v>3</v>
+      </c>
+      <c r="F31" s="67">
+        <v>1</v>
+      </c>
+      <c r="G31" s="81">
+        <v>2</v>
+      </c>
+      <c r="H31" s="66">
+        <v>8</v>
+      </c>
+      <c r="I31" s="80">
+        <v>5</v>
+      </c>
+      <c r="J31" s="70">
+        <v>4</v>
+      </c>
+      <c r="K31" s="79">
+        <v>7</v>
+      </c>
+      <c r="L31" s="80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" s="85" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+    </row>
+    <row r="34" spans="5:12" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="86"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SRC/스도쿠/스도쿠 과정.xlsx
+++ b/SRC/스도쿠/스도쿠 과정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun0\Documents\CODE\MAIN\C\SRC\스도쿠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A993D8-2977-4D26-B32E-AA1923D47924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD201A-8919-4E25-97C4-7905A6C6E37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14160" yWindow="744" windowWidth="5472" windowHeight="12120" xr2:uid="{479FD565-4D56-4CE0-980E-BD6F9298D8DF}"/>
   </bookViews>
@@ -1391,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578B1C39-5CFF-4266-88DA-65B71ACFE373}">
   <dimension ref="D1:EC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="104" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="104" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4939,6 +4939,33 @@
       <c r="L23" s="62">
         <v>7</v>
       </c>
+      <c r="O23" s="73">
+        <v>0</v>
+      </c>
+      <c r="P23" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="62">
+        <v>9</v>
+      </c>
+      <c r="R23" s="73">
+        <v>0</v>
+      </c>
+      <c r="S23" s="61">
+        <v>5</v>
+      </c>
+      <c r="T23" s="75">
+        <v>0</v>
+      </c>
+      <c r="U23" s="60">
+        <v>3</v>
+      </c>
+      <c r="V23" s="74">
+        <v>0</v>
+      </c>
+      <c r="W23" s="62">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" s="63">
@@ -4968,6 +4995,33 @@
       <c r="L24" s="77">
         <v>9</v>
       </c>
+      <c r="O24" s="63">
+        <v>2</v>
+      </c>
+      <c r="P24" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="77">
+        <v>0</v>
+      </c>
+      <c r="R24" s="78">
+        <v>0</v>
+      </c>
+      <c r="S24" s="59">
+        <v>7</v>
+      </c>
+      <c r="T24" s="64">
+        <v>6</v>
+      </c>
+      <c r="U24" s="63">
+        <v>5</v>
+      </c>
+      <c r="V24" s="59">
+        <v>1</v>
+      </c>
+      <c r="W24" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D25" s="65">
@@ -4997,6 +5051,33 @@
       <c r="L25" s="67">
         <v>2</v>
       </c>
+      <c r="O25" s="65">
+        <v>7</v>
+      </c>
+      <c r="P25" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="80">
+        <v>0</v>
+      </c>
+      <c r="R25" s="65">
+        <v>1</v>
+      </c>
+      <c r="S25" s="79">
+        <v>0</v>
+      </c>
+      <c r="T25" s="80">
+        <v>0</v>
+      </c>
+      <c r="U25" s="81">
+        <v>0</v>
+      </c>
+      <c r="V25" s="79">
+        <v>0</v>
+      </c>
+      <c r="W25" s="67">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D26" s="73">
@@ -5026,6 +5107,33 @@
       <c r="L26" s="75">
         <v>4</v>
       </c>
+      <c r="O26" s="73">
+        <v>0</v>
+      </c>
+      <c r="P26" s="61">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="75">
+        <v>0</v>
+      </c>
+      <c r="R26" s="73">
+        <v>0</v>
+      </c>
+      <c r="S26" s="74">
+        <v>0</v>
+      </c>
+      <c r="T26" s="75">
+        <v>0</v>
+      </c>
+      <c r="U26" s="73">
+        <v>0</v>
+      </c>
+      <c r="V26" s="74">
+        <v>0</v>
+      </c>
+      <c r="W26" s="75">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D27" s="78">
@@ -5055,6 +5163,33 @@
       <c r="L27" s="77">
         <v>3</v>
       </c>
+      <c r="O27" s="78">
+        <v>0</v>
+      </c>
+      <c r="P27" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="64">
+        <v>4</v>
+      </c>
+      <c r="R27" s="78">
+        <v>0</v>
+      </c>
+      <c r="S27" s="59">
+        <v>1</v>
+      </c>
+      <c r="T27" s="77">
+        <v>0</v>
+      </c>
+      <c r="U27" s="63">
+        <v>9</v>
+      </c>
+      <c r="V27" s="76">
+        <v>0</v>
+      </c>
+      <c r="W27" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D28" s="81">
@@ -5084,6 +5219,33 @@
       <c r="L28" s="80">
         <v>1</v>
       </c>
+      <c r="O28" s="81">
+        <v>0</v>
+      </c>
+      <c r="P28" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="80">
+        <v>0</v>
+      </c>
+      <c r="R28" s="81">
+        <v>0</v>
+      </c>
+      <c r="S28" s="79">
+        <v>0</v>
+      </c>
+      <c r="T28" s="80">
+        <v>0</v>
+      </c>
+      <c r="U28" s="81">
+        <v>0</v>
+      </c>
+      <c r="V28" s="66">
+        <v>8</v>
+      </c>
+      <c r="W28" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D29" s="60">
@@ -5113,6 +5275,33 @@
       <c r="L29" s="72">
         <v>8</v>
       </c>
+      <c r="O29" s="60">
+        <v>4</v>
+      </c>
+      <c r="P29" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="75">
+        <v>0</v>
+      </c>
+      <c r="R29" s="73">
+        <v>0</v>
+      </c>
+      <c r="S29" s="74">
+        <v>0</v>
+      </c>
+      <c r="T29" s="62">
+        <v>1</v>
+      </c>
+      <c r="U29" s="82">
+        <v>0</v>
+      </c>
+      <c r="V29" s="83">
+        <v>0</v>
+      </c>
+      <c r="W29" s="72">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D30" s="78">
@@ -5142,6 +5331,33 @@
       <c r="L30" s="64">
         <v>5</v>
       </c>
+      <c r="O30" s="78">
+        <v>0</v>
+      </c>
+      <c r="P30" s="59">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="64">
+        <v>8</v>
+      </c>
+      <c r="R30" s="63">
+        <v>7</v>
+      </c>
+      <c r="S30" s="59">
+        <v>3</v>
+      </c>
+      <c r="T30" s="77">
+        <v>0</v>
+      </c>
+      <c r="U30" s="84">
+        <v>0</v>
+      </c>
+      <c r="V30" s="76">
+        <v>0</v>
+      </c>
+      <c r="W30" s="64">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D31" s="65">
@@ -5170,6 +5386,33 @@
       </c>
       <c r="L31" s="80">
         <v>6</v>
+      </c>
+      <c r="O31" s="65">
+        <v>9</v>
+      </c>
+      <c r="P31" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="67">
+        <v>1</v>
+      </c>
+      <c r="R31" s="81">
+        <v>0</v>
+      </c>
+      <c r="S31" s="66">
+        <v>8</v>
+      </c>
+      <c r="T31" s="80">
+        <v>0</v>
+      </c>
+      <c r="U31" s="70">
+        <v>4</v>
+      </c>
+      <c r="V31" s="79">
+        <v>0</v>
+      </c>
+      <c r="W31" s="80">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:12" s="85" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">

--- a/SRC/스도쿠/스도쿠 과정.xlsx
+++ b/SRC/스도쿠/스도쿠 과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyun0\Documents\CODE\MAIN\C\SRC\스도쿠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DD201A-8919-4E25-97C4-7905A6C6E37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0EFA93-418B-4A3B-AD8C-0FBB4C3E0E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="744" windowWidth="5472" windowHeight="12120" xr2:uid="{479FD565-4D56-4CE0-980E-BD6F9298D8DF}"/>
+    <workbookView xWindow="17535" yWindow="675" windowWidth="21600" windowHeight="11505" xr2:uid="{479FD565-4D56-4CE0-980E-BD6F9298D8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,6 +1062,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,9 +1126,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFC0C1D"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FFFC0C1D"/>
       <color rgb="FF003300"/>
       <color rgb="FF12F63D"/>
       <color rgb="FF660066"/>
@@ -1389,47 +1443,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578B1C39-5CFF-4266-88DA-65B71ACFE373}">
-  <dimension ref="D1:EC34"/>
+  <dimension ref="D1:EC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" zoomScale="104" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23:W31"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.59765625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.8984375" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.125" customWidth="1"/>
+    <col min="21" max="21" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.75" customWidth="1"/>
+    <col min="28" max="28" width="6.875" customWidth="1"/>
+    <col min="34" max="34" width="7.25" customWidth="1"/>
+    <col min="45" max="45" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2" s="62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" s="60">
         <v>1</v>
@@ -1468,33 +1534,33 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="63">
+        <v>9</v>
+      </c>
+      <c r="E3" s="59">
         <v>10</v>
       </c>
-      <c r="E3" s="59">
+      <c r="F3" s="64">
         <v>11</v>
       </c>
-      <c r="F3" s="64">
+      <c r="G3" s="63">
         <v>12</v>
       </c>
-      <c r="G3" s="63">
+      <c r="H3" s="59">
         <v>13</v>
       </c>
-      <c r="H3" s="59">
+      <c r="I3" s="64">
         <v>14</v>
       </c>
-      <c r="I3" s="64">
+      <c r="J3" s="63">
         <v>15</v>
       </c>
-      <c r="J3" s="63">
+      <c r="K3" s="59">
         <v>16</v>
       </c>
-      <c r="K3" s="59">
+      <c r="L3" s="64">
         <v>17</v>
-      </c>
-      <c r="L3" s="64">
-        <v>18</v>
       </c>
       <c r="O3" s="63">
         <v>4</v>
@@ -1533,33 +1599,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="65">
+        <v>18</v>
+      </c>
+      <c r="E4" s="66">
         <v>19</v>
       </c>
-      <c r="E4" s="66">
+      <c r="F4" s="67">
         <v>20</v>
       </c>
-      <c r="F4" s="67">
+      <c r="G4" s="65">
         <v>21</v>
       </c>
-      <c r="G4" s="65">
+      <c r="H4" s="66">
         <v>22</v>
       </c>
-      <c r="H4" s="66">
+      <c r="I4" s="67">
         <v>23</v>
       </c>
-      <c r="I4" s="67">
+      <c r="J4" s="65">
         <v>24</v>
       </c>
-      <c r="J4" s="65">
+      <c r="K4" s="66">
         <v>25</v>
       </c>
-      <c r="K4" s="66">
+      <c r="L4" s="67">
         <v>26</v>
-      </c>
-      <c r="L4" s="67">
-        <v>27</v>
       </c>
       <c r="O4" s="65">
         <v>7</v>
@@ -1598,36 +1664,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="60">
+        <v>27</v>
+      </c>
+      <c r="E5" s="61">
         <v>28</v>
       </c>
-      <c r="E5" s="61">
+      <c r="F5" s="62">
         <v>29</v>
       </c>
-      <c r="F5" s="62">
+      <c r="G5" s="60">
         <v>30</v>
       </c>
-      <c r="G5" s="60">
+      <c r="H5" s="61">
         <v>31</v>
       </c>
-      <c r="H5" s="61">
+      <c r="I5" s="62">
         <v>32</v>
       </c>
-      <c r="I5" s="62">
+      <c r="J5" s="60">
         <v>33</v>
       </c>
-      <c r="J5" s="60">
+      <c r="K5" s="61">
         <v>34</v>
       </c>
-      <c r="K5" s="61">
+      <c r="L5" s="62">
         <v>35</v>
-      </c>
-      <c r="L5" s="62">
-        <v>36</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
       </c>
       <c r="S5" s="60" t="s">
         <v>44</v>
@@ -1657,36 +1720,33 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="63">
+        <v>36</v>
+      </c>
+      <c r="E6" s="59">
         <v>37</v>
       </c>
-      <c r="E6" s="59">
+      <c r="F6" s="64">
         <v>38</v>
       </c>
-      <c r="F6" s="64">
+      <c r="G6" s="63">
         <v>39</v>
       </c>
-      <c r="G6" s="63">
+      <c r="H6" s="59">
         <v>40</v>
       </c>
-      <c r="H6" s="59">
+      <c r="I6" s="64">
         <v>41</v>
       </c>
-      <c r="I6" s="64">
+      <c r="J6" s="63">
         <v>42</v>
       </c>
-      <c r="J6" s="63">
+      <c r="K6" s="59">
         <v>43</v>
       </c>
-      <c r="K6" s="59">
+      <c r="L6" s="64">
         <v>44</v>
-      </c>
-      <c r="L6" s="64">
-        <v>45</v>
-      </c>
-      <c r="R6">
-        <v>35</v>
       </c>
       <c r="S6" s="63" t="s">
         <v>45</v>
@@ -1716,33 +1776,33 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="65">
+        <v>45</v>
+      </c>
+      <c r="E7" s="66">
         <v>46</v>
       </c>
-      <c r="E7" s="66">
+      <c r="F7" s="67">
         <v>47</v>
       </c>
-      <c r="F7" s="67">
+      <c r="G7" s="65">
         <v>48</v>
       </c>
-      <c r="G7" s="65">
+      <c r="H7" s="66">
         <v>49</v>
       </c>
-      <c r="H7" s="66">
+      <c r="I7" s="67">
         <v>50</v>
       </c>
-      <c r="I7" s="67">
+      <c r="J7" s="65">
         <v>51</v>
       </c>
-      <c r="J7" s="65">
+      <c r="K7" s="66">
         <v>52</v>
       </c>
-      <c r="K7" s="66">
+      <c r="L7" s="67">
         <v>53</v>
-      </c>
-      <c r="L7" s="67">
-        <v>54</v>
       </c>
       <c r="S7" s="65" t="s">
         <v>46</v>
@@ -1772,33 +1832,33 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="60">
+        <v>54</v>
+      </c>
+      <c r="E8" s="61">
         <v>55</v>
       </c>
-      <c r="E8" s="61">
+      <c r="F8" s="62">
         <v>56</v>
       </c>
-      <c r="F8" s="62">
+      <c r="G8" s="60">
         <v>57</v>
       </c>
-      <c r="G8" s="60">
+      <c r="H8" s="61">
         <v>58</v>
       </c>
-      <c r="H8" s="61">
+      <c r="I8" s="62">
         <v>59</v>
       </c>
-      <c r="I8" s="62">
+      <c r="J8" s="71">
         <v>60</v>
       </c>
-      <c r="J8" s="71">
+      <c r="K8" s="69">
         <v>61</v>
       </c>
-      <c r="K8" s="69">
+      <c r="L8" s="72">
         <v>62</v>
-      </c>
-      <c r="L8" s="72">
-        <v>63</v>
       </c>
       <c r="S8" s="60" t="s">
         <v>47</v>
@@ -1828,33 +1888,33 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="63">
+        <v>63</v>
+      </c>
+      <c r="E9" s="59">
         <v>64</v>
       </c>
-      <c r="E9" s="59">
+      <c r="F9" s="64">
         <v>65</v>
       </c>
-      <c r="F9" s="64">
+      <c r="G9" s="63">
         <v>66</v>
       </c>
-      <c r="G9" s="63">
+      <c r="H9" s="59">
         <v>67</v>
       </c>
-      <c r="H9" s="59">
+      <c r="I9" s="64">
         <v>68</v>
       </c>
-      <c r="I9" s="64">
+      <c r="J9" s="68">
         <v>69</v>
       </c>
-      <c r="J9" s="68">
+      <c r="K9" s="59">
         <v>70</v>
       </c>
-      <c r="K9" s="59">
+      <c r="L9" s="64">
         <v>71</v>
-      </c>
-      <c r="L9" s="64">
-        <v>72</v>
       </c>
       <c r="S9" s="63" t="s">
         <v>48</v>
@@ -1884,33 +1944,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="65">
+        <v>72</v>
+      </c>
+      <c r="E10" s="66">
         <v>73</v>
       </c>
-      <c r="E10" s="66">
+      <c r="F10" s="67">
         <v>74</v>
       </c>
-      <c r="F10" s="67">
+      <c r="G10" s="65">
         <v>75</v>
       </c>
-      <c r="G10" s="65">
+      <c r="H10" s="66">
         <v>76</v>
       </c>
-      <c r="H10" s="66">
+      <c r="I10" s="67">
         <v>77</v>
       </c>
-      <c r="I10" s="67">
+      <c r="J10" s="70">
         <v>78</v>
       </c>
-      <c r="J10" s="70">
+      <c r="K10" s="66">
         <v>79</v>
       </c>
-      <c r="K10" s="66">
+      <c r="L10" s="67">
         <v>80</v>
-      </c>
-      <c r="L10" s="67">
-        <v>81</v>
       </c>
       <c r="S10" s="65" t="s">
         <v>49</v>
@@ -1940,7 +2000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O11" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +2035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="1">
         <v>5</v>
       </c>
@@ -2301,7 +2361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
         <v>6</v>
       </c>
@@ -2627,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="12">
         <v>1</v>
       </c>
@@ -2953,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="1">
         <v>8</v>
       </c>
@@ -3279,7 +3339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4">
         <v>4</v>
       </c>
@@ -3606,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="7">
         <v>7</v>
       </c>
@@ -3932,7 +3992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="17">
         <v>9</v>
       </c>
@@ -4258,7 +4318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="18">
         <v>2</v>
       </c>
@@ -4584,7 +4644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="12">
         <v>3</v>
       </c>
@@ -4910,8 +4970,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="73">
         <v>8</v>
       </c>
@@ -4967,7 +5027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="63">
         <v>2</v>
       </c>
@@ -5023,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="65">
         <v>7</v>
       </c>
@@ -5079,7 +5139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="73">
         <v>1</v>
       </c>
@@ -5135,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="78">
         <v>5</v>
       </c>
@@ -5191,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="81">
         <v>3</v>
       </c>
@@ -5247,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="60">
         <v>4</v>
       </c>
@@ -5303,7 +5363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:133" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="78">
         <v>6</v>
       </c>
@@ -5359,7 +5419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:133" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D31" s="65">
         <v>9</v>
       </c>
@@ -5415,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:12" s="85" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:45" s="85" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="86"/>
       <c r="G33" s="86"/>
       <c r="I33" s="86"/>
@@ -5423,8 +5483,993 @@
       <c r="K33" s="86"/>
       <c r="L33" s="86"/>
     </row>
-    <row r="34" spans="5:12" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L34" s="86"/>
+    <row r="34" spans="4:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="87">
+        <v>169</v>
+      </c>
+      <c r="E34" s="88">
+        <v>169</v>
+      </c>
+      <c r="F34" s="89">
+        <v>3</v>
+      </c>
+      <c r="G34" s="87">
+        <v>7</v>
+      </c>
+      <c r="H34" s="88">
+        <v>289</v>
+      </c>
+      <c r="I34" s="89">
+        <v>4</v>
+      </c>
+      <c r="J34" s="87">
+        <v>5</v>
+      </c>
+      <c r="K34" s="88">
+        <v>18</v>
+      </c>
+      <c r="L34" s="89">
+        <v>189</v>
+      </c>
+      <c r="O34" s="87">
+        <v>169</v>
+      </c>
+      <c r="P34" s="88">
+        <v>169</v>
+      </c>
+      <c r="Q34" s="96">
+        <v>3</v>
+      </c>
+      <c r="R34" s="99">
+        <v>7</v>
+      </c>
+      <c r="S34" s="88">
+        <v>2</v>
+      </c>
+      <c r="T34" s="96">
+        <v>4</v>
+      </c>
+      <c r="U34" s="99">
+        <v>5</v>
+      </c>
+      <c r="V34" s="88">
+        <v>18</v>
+      </c>
+      <c r="W34" s="89">
+        <v>189</v>
+      </c>
+      <c r="Z34" s="87">
+        <v>169</v>
+      </c>
+      <c r="AA34" s="88">
+        <v>169</v>
+      </c>
+      <c r="AB34" s="96">
+        <v>3</v>
+      </c>
+      <c r="AC34" s="99">
+        <v>7</v>
+      </c>
+      <c r="AD34" s="88">
+        <v>2</v>
+      </c>
+      <c r="AE34" s="96">
+        <v>4</v>
+      </c>
+      <c r="AF34" s="99">
+        <v>5</v>
+      </c>
+      <c r="AG34" s="88">
+        <v>18</v>
+      </c>
+      <c r="AH34" s="89">
+        <v>189</v>
+      </c>
+      <c r="AK34" s="87">
+        <v>6</v>
+      </c>
+      <c r="AL34" s="88">
+        <v>9</v>
+      </c>
+      <c r="AM34" s="96">
+        <v>3</v>
+      </c>
+      <c r="AN34" s="99">
+        <v>7</v>
+      </c>
+      <c r="AO34" s="88">
+        <v>2</v>
+      </c>
+      <c r="AP34" s="96">
+        <v>4</v>
+      </c>
+      <c r="AQ34" s="99">
+        <v>5</v>
+      </c>
+      <c r="AR34" s="88">
+        <v>1</v>
+      </c>
+      <c r="AS34" s="89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="4:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="90">
+        <v>14579</v>
+      </c>
+      <c r="E35" s="91">
+        <v>2</v>
+      </c>
+      <c r="F35" s="92">
+        <v>579</v>
+      </c>
+      <c r="G35" s="90">
+        <v>589</v>
+      </c>
+      <c r="H35" s="91">
+        <v>589</v>
+      </c>
+      <c r="I35" s="92">
+        <v>89</v>
+      </c>
+      <c r="J35" s="90">
+        <v>13479</v>
+      </c>
+      <c r="K35" s="91">
+        <v>6</v>
+      </c>
+      <c r="L35" s="92">
+        <v>134789</v>
+      </c>
+      <c r="O35" s="90">
+        <v>14579</v>
+      </c>
+      <c r="P35" s="97">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="92">
+        <v>579</v>
+      </c>
+      <c r="R35" s="90">
+        <v>589</v>
+      </c>
+      <c r="S35" s="91">
+        <v>589</v>
+      </c>
+      <c r="T35" s="92">
+        <v>89</v>
+      </c>
+      <c r="U35" s="90">
+        <v>13479</v>
+      </c>
+      <c r="V35" s="97">
+        <v>6</v>
+      </c>
+      <c r="W35" s="92">
+        <v>134789</v>
+      </c>
+      <c r="Z35" s="90">
+        <v>14579</v>
+      </c>
+      <c r="AA35" s="97">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="92">
+        <v>579</v>
+      </c>
+      <c r="AC35" s="90">
+        <v>589</v>
+      </c>
+      <c r="AD35" s="91">
+        <v>589</v>
+      </c>
+      <c r="AE35" s="92">
+        <v>89</v>
+      </c>
+      <c r="AF35" s="90">
+        <v>13479</v>
+      </c>
+      <c r="AG35" s="97">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="92">
+        <v>134789</v>
+      </c>
+      <c r="AK35" s="90">
+        <v>4</v>
+      </c>
+      <c r="AL35" s="97">
+        <v>2</v>
+      </c>
+      <c r="AM35" s="92">
+        <v>57</v>
+      </c>
+      <c r="AN35" s="90">
+        <v>589</v>
+      </c>
+      <c r="AO35" s="91">
+        <v>589</v>
+      </c>
+      <c r="AP35" s="92">
+        <v>89</v>
+      </c>
+      <c r="AQ35" s="90">
+        <v>79</v>
+      </c>
+      <c r="AR35" s="97">
+        <v>6</v>
+      </c>
+      <c r="AS35" s="92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="93">
+        <v>4579</v>
+      </c>
+      <c r="E36" s="94">
+        <v>8</v>
+      </c>
+      <c r="F36" s="95">
+        <v>579</v>
+      </c>
+      <c r="G36" s="93">
+        <v>3</v>
+      </c>
+      <c r="H36" s="94">
+        <v>1</v>
+      </c>
+      <c r="I36" s="95">
+        <v>6</v>
+      </c>
+      <c r="J36" s="93">
+        <v>479</v>
+      </c>
+      <c r="K36" s="94">
+        <v>2</v>
+      </c>
+      <c r="L36" s="95">
+        <v>479</v>
+      </c>
+      <c r="O36" s="93">
+        <v>4579</v>
+      </c>
+      <c r="P36" s="98">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="95">
+        <v>579</v>
+      </c>
+      <c r="R36" s="100">
+        <v>3</v>
+      </c>
+      <c r="S36" s="98">
+        <v>1</v>
+      </c>
+      <c r="T36" s="101">
+        <v>6</v>
+      </c>
+      <c r="U36" s="93">
+        <v>479</v>
+      </c>
+      <c r="V36" s="98">
+        <v>2</v>
+      </c>
+      <c r="W36" s="95">
+        <v>479</v>
+      </c>
+      <c r="Z36" s="93">
+        <v>4579</v>
+      </c>
+      <c r="AA36" s="98">
+        <v>8</v>
+      </c>
+      <c r="AB36" s="95">
+        <v>579</v>
+      </c>
+      <c r="AC36" s="100">
+        <v>3</v>
+      </c>
+      <c r="AD36" s="98">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="101">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="93">
+        <v>479</v>
+      </c>
+      <c r="AG36" s="98">
+        <v>2</v>
+      </c>
+      <c r="AH36" s="95">
+        <v>479</v>
+      </c>
+      <c r="AK36" s="93">
+        <v>5</v>
+      </c>
+      <c r="AL36" s="98">
+        <v>8</v>
+      </c>
+      <c r="AM36" s="95">
+        <v>57</v>
+      </c>
+      <c r="AN36" s="100">
+        <v>3</v>
+      </c>
+      <c r="AO36" s="98">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="101">
+        <v>6</v>
+      </c>
+      <c r="AQ36" s="93">
+        <v>79</v>
+      </c>
+      <c r="AR36" s="98">
+        <v>2</v>
+      </c>
+      <c r="AS36" s="95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="87">
+        <v>15689</v>
+      </c>
+      <c r="E37" s="88">
+        <v>169</v>
+      </c>
+      <c r="F37" s="89">
+        <v>5689</v>
+      </c>
+      <c r="G37" s="87">
+        <v>24589</v>
+      </c>
+      <c r="H37" s="88">
+        <v>2456789</v>
+      </c>
+      <c r="I37" s="89">
+        <v>12389</v>
+      </c>
+      <c r="J37" s="87">
+        <v>1347</v>
+      </c>
+      <c r="K37" s="88">
+        <v>135</v>
+      </c>
+      <c r="L37" s="89">
+        <v>13457</v>
+      </c>
+      <c r="O37" s="87">
+        <v>15689</v>
+      </c>
+      <c r="P37" s="88">
+        <v>169</v>
+      </c>
+      <c r="Q37" s="89">
+        <v>5689</v>
+      </c>
+      <c r="R37" s="87">
+        <v>24589</v>
+      </c>
+      <c r="S37" s="88">
+        <v>56789</v>
+      </c>
+      <c r="T37" s="89">
+        <v>12389</v>
+      </c>
+      <c r="U37" s="87">
+        <v>1347</v>
+      </c>
+      <c r="V37" s="88">
+        <v>135</v>
+      </c>
+      <c r="W37" s="89">
+        <v>13457</v>
+      </c>
+      <c r="Z37" s="87">
+        <v>15689</v>
+      </c>
+      <c r="AA37" s="88">
+        <v>169</v>
+      </c>
+      <c r="AB37" s="89">
+        <v>5689</v>
+      </c>
+      <c r="AC37" s="87">
+        <v>24589</v>
+      </c>
+      <c r="AD37" s="88">
+        <v>5689</v>
+      </c>
+      <c r="AE37" s="89">
+        <v>12389</v>
+      </c>
+      <c r="AF37" s="87">
+        <v>1347</v>
+      </c>
+      <c r="AG37" s="88">
+        <v>135</v>
+      </c>
+      <c r="AH37" s="89">
+        <v>7</v>
+      </c>
+      <c r="AK37" s="87">
+        <v>5</v>
+      </c>
+      <c r="AL37" s="88">
+        <v>6</v>
+      </c>
+      <c r="AM37" s="89">
+        <v>9</v>
+      </c>
+      <c r="AN37" s="87">
+        <v>4</v>
+      </c>
+      <c r="AO37" s="88">
+        <v>8</v>
+      </c>
+      <c r="AP37" s="89">
+        <v>2</v>
+      </c>
+      <c r="AQ37" s="87">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="88">
+        <v>3</v>
+      </c>
+      <c r="AS37" s="89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="4:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="90">
+        <v>3</v>
+      </c>
+      <c r="E38" s="91">
+        <v>7</v>
+      </c>
+      <c r="F38" s="92">
+        <v>568</v>
+      </c>
+      <c r="G38" s="90">
+        <v>458</v>
+      </c>
+      <c r="H38" s="91">
+        <v>4568</v>
+      </c>
+      <c r="I38" s="92">
+        <v>18</v>
+      </c>
+      <c r="J38" s="90">
+        <v>14</v>
+      </c>
+      <c r="K38" s="91">
+        <v>9</v>
+      </c>
+      <c r="L38" s="92">
+        <v>2</v>
+      </c>
+      <c r="O38" s="102">
+        <v>3</v>
+      </c>
+      <c r="P38" s="97">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="92">
+        <v>568</v>
+      </c>
+      <c r="R38" s="90">
+        <v>458</v>
+      </c>
+      <c r="S38" s="91">
+        <v>568</v>
+      </c>
+      <c r="T38" s="92">
+        <v>18</v>
+      </c>
+      <c r="U38" s="90">
+        <v>14</v>
+      </c>
+      <c r="V38" s="97">
+        <v>9</v>
+      </c>
+      <c r="W38" s="103">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="102">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="97">
+        <v>7</v>
+      </c>
+      <c r="AB38" s="92">
+        <v>568</v>
+      </c>
+      <c r="AC38" s="90">
+        <v>458</v>
+      </c>
+      <c r="AD38" s="91">
+        <v>568</v>
+      </c>
+      <c r="AE38" s="92">
+        <v>18</v>
+      </c>
+      <c r="AF38" s="90">
+        <v>14</v>
+      </c>
+      <c r="AG38" s="97">
+        <v>9</v>
+      </c>
+      <c r="AH38" s="103">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="102">
+        <v>3</v>
+      </c>
+      <c r="AL38" s="97">
+        <v>7</v>
+      </c>
+      <c r="AM38" s="92">
+        <v>8</v>
+      </c>
+      <c r="AN38" s="90">
+        <v>5</v>
+      </c>
+      <c r="AO38" s="91">
+        <v>56</v>
+      </c>
+      <c r="AP38" s="92">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="90">
+        <v>4</v>
+      </c>
+      <c r="AR38" s="97">
+        <v>9</v>
+      </c>
+      <c r="AS38" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="93">
+        <v>2</v>
+      </c>
+      <c r="E39" s="94">
+        <v>19</v>
+      </c>
+      <c r="F39" s="95">
+        <v>4</v>
+      </c>
+      <c r="G39" s="93">
+        <v>59</v>
+      </c>
+      <c r="H39" s="94">
+        <v>579</v>
+      </c>
+      <c r="I39" s="95">
+        <v>139</v>
+      </c>
+      <c r="J39" s="93">
+        <v>8</v>
+      </c>
+      <c r="K39" s="94">
+        <v>135</v>
+      </c>
+      <c r="L39" s="95">
+        <v>6</v>
+      </c>
+      <c r="O39" s="100">
+        <v>2</v>
+      </c>
+      <c r="P39" s="94">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="101">
+        <v>4</v>
+      </c>
+      <c r="R39" s="93">
+        <v>59</v>
+      </c>
+      <c r="S39" s="94">
+        <v>579</v>
+      </c>
+      <c r="T39" s="95">
+        <v>139</v>
+      </c>
+      <c r="U39" s="100">
+        <v>8</v>
+      </c>
+      <c r="V39" s="94">
+        <v>135</v>
+      </c>
+      <c r="W39" s="101">
+        <v>6</v>
+      </c>
+      <c r="Z39" s="100">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="94">
+        <v>19</v>
+      </c>
+      <c r="AB39" s="101">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="93">
+        <v>59</v>
+      </c>
+      <c r="AD39" s="94">
+        <v>7</v>
+      </c>
+      <c r="AE39" s="95">
+        <v>139</v>
+      </c>
+      <c r="AF39" s="100">
+        <v>8</v>
+      </c>
+      <c r="AG39" s="94">
+        <v>135</v>
+      </c>
+      <c r="AH39" s="101">
+        <v>6</v>
+      </c>
+      <c r="AK39" s="100">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="94">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="101">
+        <v>4</v>
+      </c>
+      <c r="AN39" s="93">
+        <v>9</v>
+      </c>
+      <c r="AO39" s="94">
+        <v>7</v>
+      </c>
+      <c r="AP39" s="95">
+        <v>3</v>
+      </c>
+      <c r="AQ39" s="100">
+        <v>8</v>
+      </c>
+      <c r="AR39" s="94">
+        <v>5</v>
+      </c>
+      <c r="AS39" s="101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="4:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="87">
+        <v>689</v>
+      </c>
+      <c r="E40" s="88">
+        <v>4</v>
+      </c>
+      <c r="F40" s="89">
+        <v>2689</v>
+      </c>
+      <c r="G40" s="87">
+        <v>1</v>
+      </c>
+      <c r="H40" s="88">
+        <v>3</v>
+      </c>
+      <c r="I40" s="89">
+        <v>5</v>
+      </c>
+      <c r="J40" s="87">
+        <v>69</v>
+      </c>
+      <c r="K40" s="88">
+        <v>7</v>
+      </c>
+      <c r="L40" s="89">
+        <v>89</v>
+      </c>
+      <c r="O40" s="87">
+        <v>689</v>
+      </c>
+      <c r="P40" s="104">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="89">
+        <v>2</v>
+      </c>
+      <c r="R40" s="99">
+        <v>1</v>
+      </c>
+      <c r="S40" s="104">
+        <v>3</v>
+      </c>
+      <c r="T40" s="96">
+        <v>5</v>
+      </c>
+      <c r="U40" s="87">
+        <v>69</v>
+      </c>
+      <c r="V40" s="104">
+        <v>7</v>
+      </c>
+      <c r="W40" s="89">
+        <v>89</v>
+      </c>
+      <c r="Z40" s="87">
+        <v>689</v>
+      </c>
+      <c r="AA40" s="104">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="89">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="99">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="104">
+        <v>3</v>
+      </c>
+      <c r="AE40" s="96">
+        <v>5</v>
+      </c>
+      <c r="AF40" s="87">
+        <v>69</v>
+      </c>
+      <c r="AG40" s="104">
+        <v>7</v>
+      </c>
+      <c r="AH40" s="89">
+        <v>89</v>
+      </c>
+      <c r="AK40" s="87">
+        <v>8</v>
+      </c>
+      <c r="AL40" s="104">
+        <v>4</v>
+      </c>
+      <c r="AM40" s="89">
+        <v>2</v>
+      </c>
+      <c r="AN40" s="99">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="104">
+        <v>3</v>
+      </c>
+      <c r="AP40" s="96">
+        <v>5</v>
+      </c>
+      <c r="AQ40" s="87">
+        <v>6</v>
+      </c>
+      <c r="AR40" s="104">
+        <v>7</v>
+      </c>
+      <c r="AS40" s="89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="4:45" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="90">
+        <v>6789</v>
+      </c>
+      <c r="E41" s="91">
+        <v>5</v>
+      </c>
+      <c r="F41" s="92">
+        <v>26789</v>
+      </c>
+      <c r="G41" s="90">
+        <v>289</v>
+      </c>
+      <c r="H41" s="91">
+        <v>289</v>
+      </c>
+      <c r="I41" s="92">
+        <v>289</v>
+      </c>
+      <c r="J41" s="90">
+        <v>1369</v>
+      </c>
+      <c r="K41" s="91">
+        <v>4</v>
+      </c>
+      <c r="L41" s="92">
+        <v>1389</v>
+      </c>
+      <c r="O41" s="90">
+        <v>6789</v>
+      </c>
+      <c r="P41" s="97">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="92">
+        <v>6789</v>
+      </c>
+      <c r="R41" s="90">
+        <v>289</v>
+      </c>
+      <c r="S41" s="91">
+        <v>89</v>
+      </c>
+      <c r="T41" s="92">
+        <v>289</v>
+      </c>
+      <c r="U41" s="90">
+        <v>1369</v>
+      </c>
+      <c r="V41" s="97">
+        <v>4</v>
+      </c>
+      <c r="W41" s="92">
+        <v>1389</v>
+      </c>
+      <c r="Z41" s="90">
+        <v>6789</v>
+      </c>
+      <c r="AA41" s="97">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="92">
+        <v>6789</v>
+      </c>
+      <c r="AC41" s="90">
+        <v>289</v>
+      </c>
+      <c r="AD41" s="91">
+        <v>89</v>
+      </c>
+      <c r="AE41" s="92">
+        <v>289</v>
+      </c>
+      <c r="AF41" s="90">
+        <v>1369</v>
+      </c>
+      <c r="AG41" s="97">
+        <v>4</v>
+      </c>
+      <c r="AH41" s="92">
+        <v>1389</v>
+      </c>
+      <c r="AK41" s="90">
+        <v>7</v>
+      </c>
+      <c r="AL41" s="97">
+        <v>5</v>
+      </c>
+      <c r="AM41" s="92">
+        <v>6</v>
+      </c>
+      <c r="AN41" s="90">
+        <v>289</v>
+      </c>
+      <c r="AO41" s="91">
+        <v>89</v>
+      </c>
+      <c r="AP41" s="92">
+        <v>89</v>
+      </c>
+      <c r="AQ41" s="90">
+        <v>3</v>
+      </c>
+      <c r="AR41" s="97">
+        <v>4</v>
+      </c>
+      <c r="AS41" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:45" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="93">
+        <v>89</v>
+      </c>
+      <c r="E42" s="94">
+        <v>39</v>
+      </c>
+      <c r="F42" s="95">
+        <v>1</v>
+      </c>
+      <c r="G42" s="93">
+        <v>6</v>
+      </c>
+      <c r="H42" s="94">
+        <v>489</v>
+      </c>
+      <c r="I42" s="95">
+        <v>7</v>
+      </c>
+      <c r="J42" s="93"/>
+      <c r="K42" s="94">
+        <v>358</v>
+      </c>
+      <c r="L42" s="95">
+        <v>3589</v>
+      </c>
+      <c r="O42" s="93">
+        <v>89</v>
+      </c>
+      <c r="P42" s="94">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="101">
+        <v>1</v>
+      </c>
+      <c r="R42" s="100">
+        <v>6</v>
+      </c>
+      <c r="S42" s="94">
+        <v>4</v>
+      </c>
+      <c r="T42" s="101">
+        <v>7</v>
+      </c>
+      <c r="U42" s="100">
+        <v>2</v>
+      </c>
+      <c r="V42" s="94">
+        <v>358</v>
+      </c>
+      <c r="W42" s="95">
+        <v>3589</v>
+      </c>
+      <c r="Z42" s="93">
+        <v>89</v>
+      </c>
+      <c r="AA42" s="94">
+        <v>39</v>
+      </c>
+      <c r="AB42" s="101">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="100">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="94">
+        <v>4</v>
+      </c>
+      <c r="AE42" s="101">
+        <v>7</v>
+      </c>
+      <c r="AF42" s="100">
+        <v>2</v>
+      </c>
+      <c r="AG42" s="94">
+        <v>358</v>
+      </c>
+      <c r="AH42" s="95">
+        <v>3589</v>
+      </c>
+      <c r="AK42" s="93">
+        <v>9</v>
+      </c>
+      <c r="AL42" s="94">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="101">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="100">
+        <v>6</v>
+      </c>
+      <c r="AO42" s="94">
+        <v>4</v>
+      </c>
+      <c r="AP42" s="101">
+        <v>7</v>
+      </c>
+      <c r="AQ42" s="100">
+        <v>2</v>
+      </c>
+      <c r="AR42" s="94">
+        <v>8</v>
+      </c>
+      <c r="AS42" s="95">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
